--- a/public/u_excel/1.DP.1.xlsx
+++ b/public/u_excel/1.DP.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zizek\Desktop\Repositorio\dev-bomberos\public\u_excel\geografico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zizek\Desktop\Repositorio\dev-bomberos\public\u_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2369F1AE-8240-47EB-99BC-476939EA6011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D341EF-58C5-42F8-A8C6-C9A530475B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t xml:space="preserve">Localidad, Municipio </t>
   </si>
@@ -39,54 +39,12 @@
   <si>
     <t>Superficie                                                              (Ha)</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nota:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> La superficie de la ciudad corresponde a las áreas urbanas y la del municipio a la continental.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Fuente:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Elaboración propia IMIP con datos del INEGI.</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,13 +201,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="5" tint="-0.499984740745262"/>
       <name val="Arial"/>
@@ -662,12 +613,12 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1015,22 +966,24 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="24.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="24.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="12">
+      <c r="A1" s="11">
         <v>2010</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1075,12 +1028,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>2020</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1126,22 +1079,18 @@
         <v>4.24709503136636</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" s="10"/>

--- a/public/u_excel/1.DP.1.xlsx
+++ b/public/u_excel/1.DP.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zizek\Desktop\Repositorio\dev-bomberos\public\u_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D341EF-58C5-42F8-A8C6-C9A530475B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB01CEA-F0E1-481B-83AB-BB48446AD891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,20 +187,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="5" tint="-0.499984740745262"/>
       <name val="Arial"/>
@@ -213,7 +199,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,18 +381,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFB0FAD9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -521,26 +513,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -586,39 +558,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -667,6 +617,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB0FAD9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -966,7 +921,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -977,123 +932,122 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6">
         <v>2010</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>1321004</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>35281</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>37.44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>1332131</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>356114</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>3.74</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>2020</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>1501551</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>35403.93</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <f>B7/C7</f>
         <v>42.411986465909294</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>1512450</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>356114</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
         <f>B8/C8</f>
         <v>4.24709503136636</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" s="10"/>
+      <c r="C15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1103,6 +1057,6 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>